--- a/data/elections/not_imputed/Congressional Elections (2006).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2006).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DA469A-B14B-B44E-8847-6CA55A4D194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9896F-4815-2B43-9D89-A7C52CA77EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="500" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Alabama</t>
   </si>
@@ -760,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:G1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,50 +781,50 @@
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="8">
         <v>502046</v>
@@ -856,15 +853,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2006</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="8">
         <v>93879</v>
@@ -893,15 +890,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2006</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="8">
         <v>627259</v>
@@ -930,15 +927,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2006</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="8">
         <v>456569</v>
@@ -967,15 +964,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2006</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="8">
         <v>4720164</v>
@@ -1004,15 +1001,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="8">
         <v>832902</v>
@@ -1041,15 +1038,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="8">
         <v>648653</v>
@@ -1078,15 +1075,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2006</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="8">
         <v>97565</v>
@@ -1115,15 +1112,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2006</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="8">
         <v>1599968</v>
@@ -1151,19 +1148,16 @@
       <c r="K10">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="8">
         <v>932143</v>
@@ -1192,15 +1186,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2006</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="8">
         <v>219810</v>
@@ -1229,15 +1223,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2006</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="8">
         <v>177376</v>
@@ -1266,15 +1260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2006</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="8">
         <v>1986431</v>
@@ -1303,15 +1297,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="8">
         <v>812496</v>
@@ -1340,15 +1334,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2006</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="8">
         <v>492937</v>
@@ -1382,10 +1376,10 @@
         <v>2006</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="8">
         <v>369191</v>
@@ -1419,10 +1413,10 @@
         <v>2006</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
       <c r="D18" s="8">
         <v>601723</v>
@@ -1456,10 +1450,10 @@
         <v>2006</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19" s="8">
         <v>309279</v>
@@ -1493,10 +1487,10 @@
         <v>2006</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="8">
         <v>350721</v>
@@ -1530,10 +1524,10 @@
         <v>2006</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="8">
         <v>1099441</v>
@@ -1567,10 +1561,10 @@
         <v>2006</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="8">
         <v>1632307</v>
@@ -1604,10 +1598,10 @@
         <v>2006</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
       </c>
       <c r="D23" s="8">
         <v>1923485</v>
@@ -1641,10 +1635,10 @@
         <v>2006</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="8">
         <v>1152621</v>
@@ -1678,10 +1672,10 @@
         <v>2006</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="8">
         <v>260330</v>
@@ -1715,10 +1709,10 @@
         <v>2006</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="8">
         <v>992258</v>
@@ -1752,10 +1746,10 @@
         <v>2006</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="8">
         <v>158916</v>
@@ -1789,10 +1783,10 @@
         <v>2006</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="8">
         <v>261910</v>
@@ -1826,10 +1820,10 @@
         <v>2006</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="8">
         <v>287879</v>
@@ -1863,10 +1857,10 @@
         <v>2006</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="8">
         <v>209434</v>
@@ -1900,10 +1894,10 @@
         <v>2006</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="8">
         <v>1207782</v>
@@ -1937,10 +1931,10 @@
         <v>2006</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="8">
         <v>313259</v>
@@ -1974,10 +1968,10 @@
         <v>2006</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="8">
         <v>2537778</v>
@@ -2011,10 +2005,10 @@
         <v>2006</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
       </c>
       <c r="D34" s="8">
         <v>1026915</v>
@@ -2048,10 +2042,10 @@
         <v>2006</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
       <c r="D35" s="8">
         <v>142934</v>
@@ -2085,10 +2079,10 @@
         <v>2006</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
       <c r="D36" s="8">
         <v>2081737</v>
@@ -2122,10 +2116,10 @@
         <v>2006</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
       <c r="D37" s="8">
         <v>372888</v>
@@ -2159,10 +2153,10 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
       <c r="D38" s="8">
         <v>765853</v>
@@ -2196,10 +2190,10 @@
         <v>2006</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
       <c r="D39" s="8">
         <v>2229091</v>
@@ -2233,10 +2227,10 @@
         <v>2006</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
       <c r="D40" s="8">
         <v>264949</v>
@@ -2270,10 +2264,10 @@
         <v>2006</v>
       </c>
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="8">
         <v>472719</v>
@@ -2307,10 +2301,10 @@
         <v>2006</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="8">
         <v>230468</v>
@@ -2344,10 +2338,10 @@
         <v>2006</v>
       </c>
       <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="8">
         <v>860861</v>
@@ -2381,10 +2375,10 @@
         <v>2006</v>
       </c>
       <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
       </c>
       <c r="D44" s="8">
         <v>1830586</v>
@@ -2418,10 +2412,10 @@
         <v>2006</v>
       </c>
       <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
       </c>
       <c r="D45" s="8">
         <v>244483</v>
@@ -2455,10 +2449,10 @@
         <v>2006</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
       </c>
       <c r="D46" s="8">
         <v>139815</v>
@@ -2492,10 +2486,10 @@
         <v>2006</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
       </c>
       <c r="D47" s="8">
         <v>947103</v>
@@ -2529,10 +2523,10 @@
         <v>2006</v>
       </c>
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="8">
         <v>1244095</v>
@@ -2566,10 +2560,10 @@
         <v>2006</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="8">
         <v>263822</v>
@@ -2603,10 +2597,10 @@
         <v>2006</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
       </c>
       <c r="D50" s="8">
         <v>1003156</v>
@@ -2640,10 +2634,10 @@
         <v>2006</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="8">
         <v>92324</v>

--- a/data/elections/not_imputed/Congressional Elections (2006).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2006).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9896F-4815-2B43-9D89-A7C52CA77EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D1004-D3B5-8C4F-8A79-C89FC53449C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="500" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="7940" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -380,16 +380,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -405,14 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -462,20 +446,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -760,25 +743,25 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -792,22 +775,22 @@
         <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>109</v>
@@ -817,13 +800,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8">
@@ -832,35 +815,35 @@
       <c r="E2" s="9">
         <v>627501</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>10605</v>
       </c>
       <c r="G2" s="9">
         <v>1140152</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f t="shared" ref="I2:I33" si="1">K2-H2-J2</f>
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="8">
@@ -869,35 +852,35 @@
       <c r="E3" s="9">
         <v>132743</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f t="shared" si="0"/>
         <v>8023</v>
       </c>
       <c r="G3" s="9">
         <v>234645</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2006</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8">
@@ -906,35 +889,35 @@
       <c r="E4" s="9">
         <v>771246</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>94645</v>
       </c>
       <c r="G4" s="9">
         <v>1493150</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8">
@@ -943,35 +926,35 @@
       <c r="E5" s="9">
         <v>306442</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="9">
         <v>763011</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2006</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8">
@@ -980,35 +963,35 @@
       <c r="E6" s="9">
         <v>3314398</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>261221</v>
       </c>
       <c r="G6" s="9">
         <v>8295783</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>34</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2006</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8">
@@ -1017,35 +1000,35 @@
       <c r="E7" s="9">
         <v>623858</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>82148</v>
       </c>
       <c r="G7" s="9">
         <v>1538908</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8">
@@ -1054,35 +1037,35 @@
       <c r="E8" s="9">
         <v>419895</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>6191</v>
       </c>
       <c r="G8" s="9">
         <v>1074739</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="8">
@@ -1091,35 +1074,35 @@
       <c r="E9" s="9">
         <v>143897</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>10232</v>
       </c>
       <c r="G9" s="9">
         <v>251694</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8">
@@ -1128,35 +1111,35 @@
       <c r="E10" s="9">
         <v>2182833</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>69141</v>
       </c>
       <c r="G10" s="9">
         <v>3851942</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
@@ -1165,35 +1148,35 @@
       <c r="E11" s="9">
         <v>1138048</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <v>2070191</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="8">
@@ -1202,35 +1185,35 @@
       <c r="E12" s="9">
         <v>118134</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="9">
         <v>337944</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="8">
@@ -1239,35 +1222,35 @@
       <c r="E13" s="9">
         <v>248105</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>19825</v>
       </c>
       <c r="G13" s="9">
         <v>445306</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="8">
@@ -1276,35 +1259,35 @@
       <c r="E14" s="9">
         <v>1442526</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>23624</v>
       </c>
       <c r="G14" s="9">
         <v>3452581</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>11</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="8">
@@ -1313,35 +1296,35 @@
       <c r="E15" s="9">
         <v>831818</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>22608</v>
       </c>
       <c r="G15" s="9">
         <v>1666922</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="8">
@@ -1350,35 +1333,35 @@
       <c r="E16" s="9">
         <v>522388</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>17656</v>
       </c>
       <c r="G16" s="9">
         <v>1032981</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="8">
@@ -1387,35 +1370,35 @@
       <c r="E17" s="9">
         <v>459267</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>16669</v>
       </c>
       <c r="G17" s="9">
         <v>845127</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="8">
@@ -1424,35 +1407,35 @@
       <c r="E18" s="9">
         <v>611780</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>40023</v>
       </c>
       <c r="G18" s="9">
         <v>1253526</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2006</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="8">
@@ -1461,35 +1444,35 @@
       <c r="E19" s="9">
         <v>579702</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>27034</v>
       </c>
       <c r="G19" s="9">
         <v>916015</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2006</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="8">
@@ -1498,35 +1481,35 @@
       <c r="E20" s="9">
         <v>163165</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>22029</v>
       </c>
       <c r="G20" s="9">
         <v>535915</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2006</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="8">
@@ -1535,35 +1518,35 @@
       <c r="E21" s="9">
         <v>546862</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>54899</v>
       </c>
       <c r="G21" s="9">
         <v>1701202</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>6</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2006</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="8">
@@ -1572,35 +1555,35 @@
       <c r="E22" s="9">
         <v>198550</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>412978</v>
       </c>
       <c r="G22" s="9">
         <v>2243835</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>10</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2006</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="8">
@@ -1609,35 +1592,35 @@
       <c r="E23" s="9">
         <v>1624865</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>98076</v>
       </c>
       <c r="G23" s="9">
         <v>3646426</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>6</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2006</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="8">
@@ -1646,35 +1629,35 @@
       <c r="E24" s="9">
         <v>924636</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>101717</v>
       </c>
       <c r="G24" s="9">
         <v>2178974</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2006</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="8">
@@ -1683,35 +1666,35 @@
       <c r="E25" s="9">
         <v>304308</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>36059</v>
       </c>
       <c r="G25" s="9">
         <v>600697</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2006</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="8">
@@ -1720,35 +1703,35 @@
       <c r="E26" s="9">
         <v>1049346</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>55718</v>
       </c>
       <c r="G26" s="9">
         <v>2097322</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2006</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="8">
@@ -1757,35 +1740,35 @@
       <c r="E27" s="9">
         <v>239124</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>8085</v>
       </c>
       <c r="G27" s="9">
         <v>406125</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2006</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="8">
@@ -1794,35 +1777,35 @@
       <c r="E28" s="9">
         <v>334177</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="9">
         <v>596087</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2006</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="8">
@@ -1831,35 +1814,35 @@
       <c r="E29" s="9">
         <v>260317</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>26631</v>
       </c>
       <c r="G29" s="9">
         <v>574827</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2006</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="8">
@@ -1868,35 +1851,35 @@
       <c r="E30" s="9">
         <v>189615</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <f t="shared" si="0"/>
         <v>3620</v>
       </c>
       <c r="G30" s="9">
         <v>402669</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>2</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2006</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="8">
@@ -1905,35 +1888,35 @@
       <c r="E31" s="9">
         <v>903176</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>25882</v>
       </c>
       <c r="G31" s="9">
         <v>2136840</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2006</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="8">
@@ -1942,35 +1925,35 @@
       <c r="E32" s="9">
         <v>247825</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <v>561084</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2006</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="8">
@@ -1979,35 +1962,35 @@
       <c r="E33" s="9">
         <v>1160460</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>988959</v>
       </c>
       <c r="G33" s="9">
         <v>4687197</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>23</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2006</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="8">
@@ -2016,35 +1999,35 @@
       <c r="E34" s="9">
         <v>913893</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>0</v>
       </c>
       <c r="G34" s="9">
         <v>1940808</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <f t="shared" ref="I34:I51" si="3">K34-H34-J34</f>
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="8">
@@ -2053,35 +2036,35 @@
       <c r="E35" s="9">
         <v>74687</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="9">
         <v>217621</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2006</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="8">
@@ -2090,35 +2073,35 @@
       <c r="E36" s="9">
         <v>1870390</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <f t="shared" si="2"/>
         <v>9068</v>
       </c>
       <c r="G36" s="9">
         <v>3961195</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>7</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2006</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="8">
@@ -2127,35 +2110,35 @@
       <c r="E37" s="9">
         <v>518025</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <f t="shared" si="2"/>
         <v>14281</v>
       </c>
       <c r="G37" s="9">
         <v>905194</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2006</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="8">
@@ -2164,35 +2147,35 @@
       <c r="E38" s="9">
         <v>557491</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <f t="shared" si="2"/>
         <v>34090</v>
       </c>
       <c r="G38" s="9">
         <v>1357434</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>4</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2006</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="8">
@@ -2201,35 +2184,35 @@
       <c r="E39" s="9">
         <v>1732163</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <f t="shared" si="2"/>
         <v>52134</v>
       </c>
       <c r="G39" s="9">
         <v>4013388</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>11</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2006</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="8">
@@ -2238,35 +2221,35 @@
       <c r="E40" s="9">
         <v>41836</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <f t="shared" si="2"/>
         <v>66363</v>
       </c>
       <c r="G40" s="9">
         <v>373148</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2006</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="8">
@@ -2275,35 +2258,35 @@
       <c r="E41" s="9">
         <v>599615</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
       <c r="G41" s="9">
         <v>1086206</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2006</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="8">
@@ -2312,35 +2295,35 @@
       <c r="E42" s="9">
         <v>97864</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <f t="shared" si="2"/>
         <v>5230</v>
       </c>
       <c r="G42" s="9">
         <v>333562</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2006</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="8">
@@ -2349,35 +2332,35 @@
       <c r="E43" s="9">
         <v>799547</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <f t="shared" si="2"/>
         <v>55018</v>
       </c>
       <c r="G43" s="9">
         <v>1715426</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>5</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2006</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="8">
@@ -2386,35 +2369,35 @@
       <c r="E44" s="9">
         <v>2093937</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <f t="shared" si="2"/>
         <v>216268</v>
       </c>
       <c r="G44" s="9">
         <v>4140791</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>12</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2006</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="8">
@@ -2423,35 +2406,35 @@
       <c r="E45" s="9">
         <v>292235</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <f t="shared" si="2"/>
         <v>32972</v>
       </c>
       <c r="G45" s="9">
         <v>569690</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2006</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="8">
@@ -2460,35 +2443,35 @@
       <c r="E46" s="9">
         <v>117023</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <f t="shared" si="2"/>
         <v>5888</v>
       </c>
       <c r="G46" s="9">
         <v>262726</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2006</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D47" s="8">
@@ -2497,35 +2480,35 @@
       <c r="E47" s="9">
         <v>1222790</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <f t="shared" si="2"/>
         <v>127343</v>
       </c>
       <c r="G47" s="9">
         <v>2297236</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>3</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2006</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="8">
@@ -2534,35 +2517,35 @@
       <c r="E48" s="9">
         <v>798005</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <f t="shared" si="2"/>
         <v>11956</v>
       </c>
       <c r="G48" s="9">
         <v>2054056</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>6</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2006</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="8">
@@ -2571,35 +2554,35 @@
       <c r="E49" s="9">
         <v>190893</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="G49" s="9">
         <v>454813</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>2</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2006</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D50" s="8">
@@ -2608,35 +2591,35 @@
       <c r="E50" s="9">
         <v>1040071</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <f t="shared" si="2"/>
         <v>20186</v>
       </c>
       <c r="G50" s="9">
         <v>2063413</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>5</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2006</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D51" s="8">
@@ -2645,24 +2628,24 @@
       <c r="E51" s="9">
         <v>93336</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <f t="shared" si="2"/>
         <v>10555</v>
       </c>
       <c r="G51" s="9">
         <v>196215</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
         <v>1</v>
       </c>
     </row>

--- a/data/elections/not_imputed/Congressional Elections (2006).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2006).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D1004-D3B5-8C4F-8A79-C89FC53449C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391B382-E59D-2040-8592-1EC1E06B5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="7940" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,9 +456,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -746,22 +745,22 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="A1:K1048576"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -800,1852 +799,1852 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>502046</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>627501</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>10605</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1140152</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <f t="shared" ref="I2:I33" si="1">K2-H2-J2</f>
         <v>5</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>93879</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>132743</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>8023</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>234645</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>627259</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>771246</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>94645</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1493150</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>456569</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>306442</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>763011</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>4720164</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>3314398</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>261221</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>8295783</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>34</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>832902</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>623858</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>82148</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1538908</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>648653</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>419895</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>6191</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1074739</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>97565</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>143897</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>10232</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>251694</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1599968</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2182833</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>69141</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>3851942</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>932143</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1138048</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>2070191</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>219810</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>118134</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>337944</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>177376</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>248105</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>19825</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>445306</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>1986431</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>1442526</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>23624</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>3452581</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>812496</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>831818</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>22608</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>1666922</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>492937</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>522388</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>17656</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1032981</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>369191</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>459267</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>16669</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>845127</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>601723</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>611780</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>40023</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1253526</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>309279</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>579702</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>27034</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>916015</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20">
+        <v>2006</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>350721</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>163165</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>22029</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>535915</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1099441</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>546862</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>54899</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>1701202</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1632307</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>198550</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>412978</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>2243835</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23">
+        <v>2006</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1923485</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>1624865</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
         <v>98076</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>3646426</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24">
+        <v>2006</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1152621</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>924636</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>101717</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>2178974</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25">
+        <v>2006</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>260330</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>304308</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>36059</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>600697</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26">
+        <v>2006</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>992258</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>1049346</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
         <v>55718</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>2097322</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>158916</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>239124</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>8085</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>406125</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>261910</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>334177</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>596087</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>287879</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>260317</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>26631</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>574827</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30">
+        <v>2006</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>209434</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>189615</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>3620</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>402669</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1207782</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>903176</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f t="shared" si="0"/>
         <v>25882</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>2136840</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31">
         <v>7</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>313259</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>247825</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <v>561084</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>2537778</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>1160460</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f t="shared" si="0"/>
         <v>988959</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>4687197</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33">
         <v>23</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>1026915</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>913893</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>1940808</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34">
         <v>7</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34">
         <f t="shared" ref="I34:I51" si="3">K34-H34-J34</f>
         <v>6</v>
       </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>142934</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>74687</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>217621</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>2081737</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>1870390</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f t="shared" si="2"/>
         <v>9068</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>3961195</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36">
         <v>7</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>372888</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>518025</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f t="shared" si="2"/>
         <v>14281</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>905194</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>765853</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>557491</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f t="shared" si="2"/>
         <v>34090</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>1357434</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>2229091</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>1732163</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f t="shared" si="2"/>
         <v>52134</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>4013388</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>264949</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>41836</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f t="shared" si="2"/>
         <v>66363</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>373148</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>472719</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>599615</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>1086206</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>230468</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>97864</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <f t="shared" si="2"/>
         <v>5230</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>333562</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>860861</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>799547</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <f t="shared" si="2"/>
         <v>55018</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>1715426</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>1830586</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>2093937</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <f t="shared" si="2"/>
         <v>216268</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>4140791</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44">
         <v>12</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>244483</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>292235</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <f t="shared" si="2"/>
         <v>32972</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>569690</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>139815</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>117023</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <f t="shared" si="2"/>
         <v>5888</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>262726</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>947103</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>1222790</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <f t="shared" si="2"/>
         <v>127343</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>2297236</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>1244095</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>798005</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <f t="shared" si="2"/>
         <v>11956</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>2054056</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48">
         <v>6</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>263822</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>190893</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>454813</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>1003156</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>1040071</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <f t="shared" si="2"/>
         <v>20186</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>2063413</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50">
         <v>5</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>92324</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>93336</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <f t="shared" si="2"/>
         <v>10555</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>196215</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>1</v>
       </c>
     </row>

--- a/data/elections/not_imputed/Congressional Elections (2006).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2006).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391B382-E59D-2040-8592-1EC1E06B5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09F1F1-742F-304C-A5E6-5C1577F5BE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="7940" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="2460" windowWidth="23300" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2006" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{81F23719-CD6F-5B4D-B23C-9089F3D25C16}" name="Congressional Elections (2006)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2006).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Alabama</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +436,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,11 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,10 +495,14 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -474,6 +515,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2006)" connectionId="1" xr16:uid="{D3FAEBEC-69CC-C74D-869A-DAFDEEDC1911}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,13 +784,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,10 +819,10 @@
         <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>105</v>
@@ -786,10 +831,10 @@
         <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>109</v>
@@ -809,24 +854,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
+        <v>627501</v>
+      </c>
+      <c r="E2" s="8">
         <v>502046</v>
       </c>
-      <c r="E2" s="8">
-        <v>627501</v>
-      </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>10605</v>
       </c>
       <c r="G2" s="8">
         <v>1140152</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="1">K2-H2-J2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -846,24 +889,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="7">
+        <v>132743</v>
+      </c>
+      <c r="E3" s="8">
         <v>93879</v>
       </c>
-      <c r="E3" s="8">
-        <v>132743</v>
-      </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
         <v>8023</v>
       </c>
       <c r="G3" s="8">
         <v>234645</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -883,13 +924,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
+        <v>771246</v>
+      </c>
+      <c r="E4" s="8">
         <v>627259</v>
       </c>
-      <c r="E4" s="8">
-        <v>771246</v>
-      </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
         <v>94645</v>
       </c>
       <c r="G4" s="8">
@@ -899,7 +939,6 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J4">
@@ -920,24 +959,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
+        <v>306442</v>
+      </c>
+      <c r="E5" s="8">
         <v>456569</v>
       </c>
-      <c r="E5" s="8">
-        <v>306442</v>
-      </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>763011</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -957,24 +994,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
+        <v>3314398</v>
+      </c>
+      <c r="E6" s="8">
         <v>4720164</v>
       </c>
-      <c r="E6" s="8">
-        <v>3314398</v>
-      </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
         <v>261221</v>
       </c>
       <c r="G6" s="8">
         <v>8295783</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>19</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -994,24 +1029,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
+        <v>623858</v>
+      </c>
+      <c r="E7" s="8">
         <v>832902</v>
       </c>
-      <c r="E7" s="8">
-        <v>623858</v>
-      </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
         <v>82148</v>
       </c>
       <c r="G7" s="8">
         <v>1538908</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>4</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1031,24 +1064,22 @@
         <v>13</v>
       </c>
       <c r="D8" s="7">
+        <v>419895</v>
+      </c>
+      <c r="E8" s="8">
         <v>648653</v>
       </c>
-      <c r="E8" s="8">
-        <v>419895</v>
-      </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
         <v>6191</v>
       </c>
       <c r="G8" s="8">
         <v>1074739</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1068,24 +1099,22 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
+        <v>143897</v>
+      </c>
+      <c r="E9" s="8">
         <v>97565</v>
       </c>
-      <c r="E9" s="8">
-        <v>143897</v>
-      </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
         <v>10232</v>
       </c>
       <c r="G9" s="8">
         <v>251694</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1105,24 +1134,22 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
+        <v>2182833</v>
+      </c>
+      <c r="E10" s="8">
         <v>1599968</v>
       </c>
-      <c r="E10" s="8">
-        <v>2182833</v>
-      </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
         <v>69141</v>
       </c>
       <c r="G10" s="8">
         <v>3851942</v>
       </c>
       <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>16</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1142,24 +1169,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
+        <v>1138048</v>
+      </c>
+      <c r="E11" s="8">
         <v>932143</v>
       </c>
-      <c r="E11" s="8">
-        <v>1138048</v>
-      </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>2070191</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1179,24 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
+        <v>118134</v>
+      </c>
+      <c r="E12" s="8">
         <v>219810</v>
       </c>
-      <c r="E12" s="8">
-        <v>118134</v>
-      </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>337944</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1216,24 +1239,22 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
+        <v>248105</v>
+      </c>
+      <c r="E13" s="8">
         <v>177376</v>
       </c>
-      <c r="E13" s="8">
-        <v>248105</v>
-      </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
         <v>19825</v>
       </c>
       <c r="G13" s="8">
         <v>445306</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1253,24 +1274,22 @@
         <v>25</v>
       </c>
       <c r="D14" s="7">
+        <v>1442526</v>
+      </c>
+      <c r="E14" s="8">
         <v>1986431</v>
       </c>
-      <c r="E14" s="8">
-        <v>1442526</v>
-      </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
         <v>23624</v>
       </c>
       <c r="G14" s="8">
         <v>3452581</v>
       </c>
       <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
         <v>11</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>8</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1290,24 +1309,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
+        <v>831818</v>
+      </c>
+      <c r="E15" s="8">
         <v>812496</v>
       </c>
-      <c r="E15" s="8">
-        <v>831818</v>
-      </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
         <v>22608</v>
       </c>
       <c r="G15" s="8">
         <v>1666922</v>
       </c>
       <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>5</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1327,24 +1344,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
+        <v>522388</v>
+      </c>
+      <c r="E16" s="8">
         <v>492937</v>
       </c>
-      <c r="E16" s="8">
-        <v>522388</v>
-      </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
         <v>17656</v>
       </c>
       <c r="G16" s="8">
         <v>1032981</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>3</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1364,13 +1379,12 @@
         <v>31</v>
       </c>
       <c r="D17" s="7">
+        <v>459267</v>
+      </c>
+      <c r="E17" s="8">
         <v>369191</v>
       </c>
-      <c r="E17" s="8">
-        <v>459267</v>
-      </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
         <v>16669</v>
       </c>
       <c r="G17" s="8">
@@ -1380,7 +1394,6 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J17">
@@ -1401,24 +1414,22 @@
         <v>33</v>
       </c>
       <c r="D18" s="7">
+        <v>611780</v>
+      </c>
+      <c r="E18" s="8">
         <v>601723</v>
       </c>
-      <c r="E18" s="8">
-        <v>611780</v>
-      </c>
       <c r="F18" s="8">
-        <f t="shared" si="0"/>
         <v>40023</v>
       </c>
       <c r="G18" s="8">
         <v>1253526</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1438,24 +1449,22 @@
         <v>35</v>
       </c>
       <c r="D19" s="7">
+        <v>579702</v>
+      </c>
+      <c r="E19" s="8">
         <v>309279</v>
       </c>
-      <c r="E19" s="8">
-        <v>579702</v>
-      </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
         <v>27034</v>
       </c>
       <c r="G19" s="8">
         <v>916015</v>
       </c>
       <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
         <v>3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1475,24 +1484,22 @@
         <v>37</v>
       </c>
       <c r="D20" s="7">
+        <v>163165</v>
+      </c>
+      <c r="E20" s="8">
         <v>350721</v>
       </c>
-      <c r="E20" s="8">
-        <v>163165</v>
-      </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
         <v>22029</v>
       </c>
       <c r="G20" s="8">
         <v>535915</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1512,24 +1519,22 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
+        <v>546862</v>
+      </c>
+      <c r="E21" s="8">
         <v>1099441</v>
       </c>
-      <c r="E21" s="8">
-        <v>546862</v>
-      </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
         <v>54899</v>
       </c>
       <c r="G21" s="8">
         <v>1701202</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>6</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1549,24 +1554,22 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
+        <v>198550</v>
+      </c>
+      <c r="E22" s="8">
         <v>1632307</v>
       </c>
-      <c r="E22" s="8">
-        <v>198550</v>
-      </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
         <v>412978</v>
       </c>
       <c r="G22" s="8">
         <v>2243835</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>10</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1586,24 +1589,22 @@
         <v>43</v>
       </c>
       <c r="D23" s="7">
+        <v>1624865</v>
+      </c>
+      <c r="E23" s="8">
         <v>1923485</v>
       </c>
-      <c r="E23" s="8">
-        <v>1624865</v>
-      </c>
       <c r="F23" s="8">
-        <f t="shared" si="0"/>
         <v>98076</v>
       </c>
       <c r="G23" s="8">
         <v>3646426</v>
       </c>
       <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
         <v>6</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>9</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1623,24 +1624,22 @@
         <v>45</v>
       </c>
       <c r="D24" s="7">
+        <v>924636</v>
+      </c>
+      <c r="E24" s="8">
         <v>1152621</v>
       </c>
-      <c r="E24" s="8">
-        <v>924636</v>
-      </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
         <v>101717</v>
       </c>
       <c r="G24" s="8">
         <v>2178974</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>5</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1660,13 +1659,12 @@
         <v>47</v>
       </c>
       <c r="D25" s="7">
+        <v>304308</v>
+      </c>
+      <c r="E25" s="8">
         <v>260330</v>
       </c>
-      <c r="E25" s="8">
-        <v>304308</v>
-      </c>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
         <v>36059</v>
       </c>
       <c r="G25" s="8">
@@ -1676,7 +1674,6 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J25">
@@ -1697,24 +1694,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="7">
+        <v>1049346</v>
+      </c>
+      <c r="E26" s="8">
         <v>992258</v>
       </c>
-      <c r="E26" s="8">
-        <v>1049346</v>
-      </c>
       <c r="F26" s="8">
-        <f t="shared" si="0"/>
         <v>55718</v>
       </c>
       <c r="G26" s="8">
         <v>2097322</v>
       </c>
       <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
         <v>4</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1734,24 +1729,22 @@
         <v>51</v>
       </c>
       <c r="D27" s="7">
+        <v>239124</v>
+      </c>
+      <c r="E27" s="8">
         <v>158916</v>
       </c>
-      <c r="E27" s="8">
-        <v>239124</v>
-      </c>
       <c r="F27" s="8">
-        <f t="shared" si="0"/>
         <v>8085</v>
       </c>
       <c r="G27" s="8">
         <v>406125</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1771,24 +1764,22 @@
         <v>53</v>
       </c>
       <c r="D28" s="7">
+        <v>334177</v>
+      </c>
+      <c r="E28" s="8">
         <v>261910</v>
       </c>
-      <c r="E28" s="8">
-        <v>334177</v>
-      </c>
       <c r="F28" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>596087</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1808,24 +1799,22 @@
         <v>55</v>
       </c>
       <c r="D29" s="7">
+        <v>260317</v>
+      </c>
+      <c r="E29" s="8">
         <v>287879</v>
       </c>
-      <c r="E29" s="8">
-        <v>260317</v>
-      </c>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
         <v>26631</v>
       </c>
       <c r="G29" s="8">
         <v>574827</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1845,24 +1834,22 @@
         <v>57</v>
       </c>
       <c r="D30" s="7">
+        <v>189615</v>
+      </c>
+      <c r="E30" s="8">
         <v>209434</v>
       </c>
-      <c r="E30" s="8">
-        <v>189615</v>
-      </c>
       <c r="F30" s="8">
-        <f t="shared" si="0"/>
         <v>3620</v>
       </c>
       <c r="G30" s="8">
         <v>402669</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1882,24 +1869,22 @@
         <v>59</v>
       </c>
       <c r="D31" s="7">
+        <v>903176</v>
+      </c>
+      <c r="E31" s="8">
         <v>1207782</v>
       </c>
-      <c r="E31" s="8">
-        <v>903176</v>
-      </c>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
         <v>25882</v>
       </c>
       <c r="G31" s="8">
         <v>2136840</v>
       </c>
       <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
         <v>7</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1919,24 +1904,22 @@
         <v>61</v>
       </c>
       <c r="D32" s="7">
+        <v>247825</v>
+      </c>
+      <c r="E32" s="8">
         <v>313259</v>
       </c>
-      <c r="E32" s="8">
-        <v>247825</v>
-      </c>
       <c r="F32" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>561084</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1956,24 +1939,22 @@
         <v>63</v>
       </c>
       <c r="D33" s="7">
+        <v>1160460</v>
+      </c>
+      <c r="E33" s="8">
         <v>2537778</v>
       </c>
-      <c r="E33" s="8">
-        <v>1160460</v>
-      </c>
       <c r="F33" s="8">
-        <f t="shared" si="0"/>
         <v>988959</v>
       </c>
       <c r="G33" s="8">
         <v>4687197</v>
       </c>
       <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
         <v>23</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1993,24 +1974,22 @@
         <v>65</v>
       </c>
       <c r="D34" s="7">
+        <v>913893</v>
+      </c>
+      <c r="E34" s="8">
         <v>1026915</v>
       </c>
-      <c r="E34" s="8">
-        <v>913893</v>
-      </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>0</v>
       </c>
       <c r="G34" s="8">
         <v>1940808</v>
       </c>
       <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
         <v>7</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I51" si="3">K34-H34-J34</f>
-        <v>6</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2030,24 +2009,22 @@
         <v>67</v>
       </c>
       <c r="D35" s="7">
+        <v>74687</v>
+      </c>
+      <c r="E35" s="8">
         <v>142934</v>
       </c>
-      <c r="E35" s="8">
-        <v>74687</v>
-      </c>
       <c r="F35" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>217621</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2067,24 +2044,22 @@
         <v>69</v>
       </c>
       <c r="D36" s="7">
+        <v>1870390</v>
+      </c>
+      <c r="E36" s="8">
         <v>2081737</v>
       </c>
-      <c r="E36" s="8">
-        <v>1870390</v>
-      </c>
       <c r="F36" s="8">
-        <f t="shared" si="2"/>
         <v>9068</v>
       </c>
       <c r="G36" s="8">
         <v>3961195</v>
       </c>
       <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
         <v>7</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="3"/>
-        <v>11</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2104,24 +2079,22 @@
         <v>71</v>
       </c>
       <c r="D37" s="7">
+        <v>518025</v>
+      </c>
+      <c r="E37" s="8">
         <v>372888</v>
       </c>
-      <c r="E37" s="8">
-        <v>518025</v>
-      </c>
       <c r="F37" s="8">
-        <f t="shared" si="2"/>
         <v>14281</v>
       </c>
       <c r="G37" s="8">
         <v>905194</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2141,24 +2114,22 @@
         <v>73</v>
       </c>
       <c r="D38" s="7">
+        <v>557491</v>
+      </c>
+      <c r="E38" s="8">
         <v>765853</v>
       </c>
-      <c r="E38" s="8">
-        <v>557491</v>
-      </c>
       <c r="F38" s="8">
-        <f t="shared" si="2"/>
         <v>34090</v>
       </c>
       <c r="G38" s="8">
         <v>1357434</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>4</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2178,24 +2149,22 @@
         <v>75</v>
       </c>
       <c r="D39" s="7">
+        <v>1732163</v>
+      </c>
+      <c r="E39" s="8">
         <v>2229091</v>
       </c>
-      <c r="E39" s="8">
-        <v>1732163</v>
-      </c>
       <c r="F39" s="8">
-        <f t="shared" si="2"/>
         <v>52134</v>
       </c>
       <c r="G39" s="8">
         <v>4013388</v>
       </c>
       <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
         <v>11</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>8</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2215,24 +2184,22 @@
         <v>77</v>
       </c>
       <c r="D40" s="7">
+        <v>41836</v>
+      </c>
+      <c r="E40" s="8">
         <v>264949</v>
       </c>
-      <c r="E40" s="8">
-        <v>41836</v>
-      </c>
       <c r="F40" s="8">
-        <f t="shared" si="2"/>
         <v>66363</v>
       </c>
       <c r="G40" s="8">
         <v>373148</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2252,24 +2219,22 @@
         <v>79</v>
       </c>
       <c r="D41" s="7">
+        <v>599615</v>
+      </c>
+      <c r="E41" s="8">
         <v>472719</v>
       </c>
-      <c r="E41" s="8">
-        <v>599615</v>
-      </c>
       <c r="F41" s="8">
-        <f t="shared" si="2"/>
         <v>13872</v>
       </c>
       <c r="G41" s="8">
         <v>1086206</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2289,24 +2254,22 @@
         <v>81</v>
       </c>
       <c r="D42" s="7">
+        <v>97864</v>
+      </c>
+      <c r="E42" s="8">
         <v>230468</v>
       </c>
-      <c r="E42" s="8">
-        <v>97864</v>
-      </c>
       <c r="F42" s="8">
-        <f t="shared" si="2"/>
         <v>5230</v>
       </c>
       <c r="G42" s="8">
         <v>333562</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2326,24 +2289,22 @@
         <v>83</v>
       </c>
       <c r="D43" s="7">
+        <v>799547</v>
+      </c>
+      <c r="E43" s="8">
         <v>860861</v>
       </c>
-      <c r="E43" s="8">
-        <v>799547</v>
-      </c>
       <c r="F43" s="8">
-        <f t="shared" si="2"/>
         <v>55018</v>
       </c>
       <c r="G43" s="8">
         <v>1715426</v>
       </c>
       <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
         <v>5</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="3"/>
-        <v>4</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2363,24 +2324,22 @@
         <v>85</v>
       </c>
       <c r="D44" s="7">
+        <v>2093937</v>
+      </c>
+      <c r="E44" s="8">
         <v>1830586</v>
       </c>
-      <c r="E44" s="8">
-        <v>2093937</v>
-      </c>
       <c r="F44" s="8">
-        <f t="shared" si="2"/>
         <v>216268</v>
       </c>
       <c r="G44" s="8">
         <v>4140791</v>
       </c>
       <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
         <v>12</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="3"/>
-        <v>20</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2400,24 +2359,22 @@
         <v>87</v>
       </c>
       <c r="D45" s="7">
+        <v>292235</v>
+      </c>
+      <c r="E45" s="8">
         <v>244483</v>
       </c>
-      <c r="E45" s="8">
-        <v>292235</v>
-      </c>
       <c r="F45" s="8">
-        <f t="shared" si="2"/>
         <v>32972</v>
       </c>
       <c r="G45" s="8">
         <v>569690</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2437,24 +2394,22 @@
         <v>89</v>
       </c>
       <c r="D46" s="7">
+        <v>117023</v>
+      </c>
+      <c r="E46" s="8">
         <v>139815</v>
       </c>
-      <c r="E46" s="8">
-        <v>117023</v>
-      </c>
       <c r="F46" s="8">
-        <f t="shared" si="2"/>
         <v>5888</v>
       </c>
       <c r="G46" s="8">
         <v>262726</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2474,24 +2429,22 @@
         <v>91</v>
       </c>
       <c r="D47" s="7">
+        <v>1222790</v>
+      </c>
+      <c r="E47" s="8">
         <v>947103</v>
       </c>
-      <c r="E47" s="8">
-        <v>1222790</v>
-      </c>
       <c r="F47" s="8">
-        <f t="shared" si="2"/>
         <v>127343</v>
       </c>
       <c r="G47" s="8">
         <v>2297236</v>
       </c>
       <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
         <v>3</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="3"/>
-        <v>8</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2511,24 +2464,22 @@
         <v>93</v>
       </c>
       <c r="D48" s="7">
+        <v>798005</v>
+      </c>
+      <c r="E48" s="8">
         <v>1244095</v>
       </c>
-      <c r="E48" s="8">
-        <v>798005</v>
-      </c>
       <c r="F48" s="8">
-        <f t="shared" si="2"/>
         <v>11956</v>
       </c>
       <c r="G48" s="8">
         <v>2054056</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>6</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2548,24 +2499,22 @@
         <v>95</v>
       </c>
       <c r="D49" s="7">
+        <v>190893</v>
+      </c>
+      <c r="E49" s="8">
         <v>263822</v>
       </c>
-      <c r="E49" s="8">
-        <v>190893</v>
-      </c>
       <c r="F49" s="8">
-        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="G49" s="8">
         <v>454813</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2585,24 +2534,22 @@
         <v>97</v>
       </c>
       <c r="D50" s="7">
+        <v>1040071</v>
+      </c>
+      <c r="E50" s="8">
         <v>1003156</v>
       </c>
-      <c r="E50" s="8">
-        <v>1040071</v>
-      </c>
       <c r="F50" s="8">
-        <f t="shared" si="2"/>
         <v>20186</v>
       </c>
       <c r="G50" s="8">
         <v>2063413</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>5</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2622,29 +2569,1695 @@
         <v>99</v>
       </c>
       <c r="D51" s="7">
+        <v>93336</v>
+      </c>
+      <c r="E51" s="8">
         <v>92324</v>
       </c>
-      <c r="E51" s="8">
-        <v>93336</v>
-      </c>
       <c r="F51" s="8">
-        <f t="shared" si="2"/>
         <v>10555</v>
       </c>
       <c r="G51" s="8">
         <v>196215</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="10">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.54120203450439053</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076F52CA-C895-0B44-A4ED-0D66AC1671DC}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>627501</v>
+      </c>
+      <c r="D2">
+        <v>502046</v>
+      </c>
+      <c r="E2">
+        <v>10605</v>
+      </c>
+      <c r="F2">
+        <v>1140152</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>132743</v>
+      </c>
+      <c r="D3">
+        <v>93879</v>
+      </c>
+      <c r="E3">
+        <v>8023</v>
+      </c>
+      <c r="F3">
+        <v>234645</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>771246</v>
+      </c>
+      <c r="D4">
+        <v>627259</v>
+      </c>
+      <c r="E4">
+        <v>94645</v>
+      </c>
+      <c r="F4">
+        <v>1493150</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>306442</v>
+      </c>
+      <c r="D5">
+        <v>456569</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>763011</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3314398</v>
+      </c>
+      <c r="D6">
+        <v>4720164</v>
+      </c>
+      <c r="E6">
+        <v>261221</v>
+      </c>
+      <c r="F6">
+        <v>8295783</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>623858</v>
+      </c>
+      <c r="D7">
+        <v>832902</v>
+      </c>
+      <c r="E7">
+        <v>82148</v>
+      </c>
+      <c r="F7">
+        <v>1538908</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>419895</v>
+      </c>
+      <c r="D8">
+        <v>648653</v>
+      </c>
+      <c r="E8">
+        <v>6191</v>
+      </c>
+      <c r="F8">
+        <v>1074739</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>143897</v>
+      </c>
+      <c r="D9">
+        <v>97565</v>
+      </c>
+      <c r="E9">
+        <v>10232</v>
+      </c>
+      <c r="F9">
+        <v>251694</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>2182833</v>
+      </c>
+      <c r="D10">
+        <v>1599968</v>
+      </c>
+      <c r="E10">
+        <v>69141</v>
+      </c>
+      <c r="F10">
+        <v>3851942</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1138048</v>
+      </c>
+      <c r="D11">
+        <v>932143</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2070191</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>118134</v>
+      </c>
+      <c r="D12">
+        <v>219810</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>337944</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>248105</v>
+      </c>
+      <c r="D13">
+        <v>177376</v>
+      </c>
+      <c r="E13">
+        <v>19825</v>
+      </c>
+      <c r="F13">
+        <v>445306</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1442526</v>
+      </c>
+      <c r="D14">
+        <v>1986431</v>
+      </c>
+      <c r="E14">
+        <v>23624</v>
+      </c>
+      <c r="F14">
+        <v>3452581</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>831818</v>
+      </c>
+      <c r="D15">
+        <v>812496</v>
+      </c>
+      <c r="E15">
+        <v>22608</v>
+      </c>
+      <c r="F15">
+        <v>1666922</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>522388</v>
+      </c>
+      <c r="D16">
+        <v>492937</v>
+      </c>
+      <c r="E16">
+        <v>17656</v>
+      </c>
+      <c r="F16">
+        <v>1032981</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>459267</v>
+      </c>
+      <c r="D17">
+        <v>369191</v>
+      </c>
+      <c r="E17">
+        <v>16669</v>
+      </c>
+      <c r="F17">
+        <v>845127</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>611780</v>
+      </c>
+      <c r="D18">
+        <v>601723</v>
+      </c>
+      <c r="E18">
+        <v>40023</v>
+      </c>
+      <c r="F18">
+        <v>1253526</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>579702</v>
+      </c>
+      <c r="D19">
+        <v>309279</v>
+      </c>
+      <c r="E19">
+        <v>27034</v>
+      </c>
+      <c r="F19">
+        <v>916015</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>163165</v>
+      </c>
+      <c r="D20">
+        <v>350721</v>
+      </c>
+      <c r="E20">
+        <v>22029</v>
+      </c>
+      <c r="F20">
+        <v>535915</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>546862</v>
+      </c>
+      <c r="D21">
+        <v>1099441</v>
+      </c>
+      <c r="E21">
+        <v>54899</v>
+      </c>
+      <c r="F21">
+        <v>1701202</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>198550</v>
+      </c>
+      <c r="D22">
+        <v>1632307</v>
+      </c>
+      <c r="E22">
+        <v>412978</v>
+      </c>
+      <c r="F22">
+        <v>2243835</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1624865</v>
+      </c>
+      <c r="D23">
+        <v>1923485</v>
+      </c>
+      <c r="E23">
+        <v>98076</v>
+      </c>
+      <c r="F23">
+        <v>3646426</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>924636</v>
+      </c>
+      <c r="D24">
+        <v>1152621</v>
+      </c>
+      <c r="E24">
+        <v>101717</v>
+      </c>
+      <c r="F24">
+        <v>2178974</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>304308</v>
+      </c>
+      <c r="D25">
+        <v>260330</v>
+      </c>
+      <c r="E25">
+        <v>36059</v>
+      </c>
+      <c r="F25">
+        <v>600697</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1049346</v>
+      </c>
+      <c r="D26">
+        <v>992258</v>
+      </c>
+      <c r="E26">
+        <v>55718</v>
+      </c>
+      <c r="F26">
+        <v>2097322</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>239124</v>
+      </c>
+      <c r="D27">
+        <v>158916</v>
+      </c>
+      <c r="E27">
+        <v>8085</v>
+      </c>
+      <c r="F27">
+        <v>406125</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>334177</v>
+      </c>
+      <c r="D28">
+        <v>261910</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>596087</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>260317</v>
+      </c>
+      <c r="D29">
+        <v>287879</v>
+      </c>
+      <c r="E29">
+        <v>26631</v>
+      </c>
+      <c r="F29">
+        <v>574827</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>189615</v>
+      </c>
+      <c r="D30">
+        <v>209434</v>
+      </c>
+      <c r="E30">
+        <v>3620</v>
+      </c>
+      <c r="F30">
+        <v>402669</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>903176</v>
+      </c>
+      <c r="D31">
+        <v>1207782</v>
+      </c>
+      <c r="E31">
+        <v>25882</v>
+      </c>
+      <c r="F31">
+        <v>2136840</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>247825</v>
+      </c>
+      <c r="D32">
+        <v>313259</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>561084</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>1160460</v>
+      </c>
+      <c r="D33">
+        <v>2537778</v>
+      </c>
+      <c r="E33">
+        <v>988959</v>
+      </c>
+      <c r="F33">
+        <v>4687197</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>913893</v>
+      </c>
+      <c r="D34">
+        <v>1026915</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1940808</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>74687</v>
+      </c>
+      <c r="D35">
+        <v>142934</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>217621</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>1870390</v>
+      </c>
+      <c r="D36">
+        <v>2081737</v>
+      </c>
+      <c r="E36">
+        <v>9068</v>
+      </c>
+      <c r="F36">
+        <v>3961195</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>518025</v>
+      </c>
+      <c r="D37">
+        <v>372888</v>
+      </c>
+      <c r="E37">
+        <v>14281</v>
+      </c>
+      <c r="F37">
+        <v>905194</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>557491</v>
+      </c>
+      <c r="D38">
+        <v>765853</v>
+      </c>
+      <c r="E38">
+        <v>34090</v>
+      </c>
+      <c r="F38">
+        <v>1357434</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>1732163</v>
+      </c>
+      <c r="D39">
+        <v>2229091</v>
+      </c>
+      <c r="E39">
+        <v>52134</v>
+      </c>
+      <c r="F39">
+        <v>4013388</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>41836</v>
+      </c>
+      <c r="D40">
+        <v>264949</v>
+      </c>
+      <c r="E40">
+        <v>66363</v>
+      </c>
+      <c r="F40">
+        <v>373148</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>599615</v>
+      </c>
+      <c r="D41">
+        <v>472719</v>
+      </c>
+      <c r="E41">
+        <v>13872</v>
+      </c>
+      <c r="F41">
+        <v>1086206</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>97864</v>
+      </c>
+      <c r="D42">
+        <v>230468</v>
+      </c>
+      <c r="E42">
+        <v>5230</v>
+      </c>
+      <c r="F42">
+        <v>333562</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>799547</v>
+      </c>
+      <c r="D43">
+        <v>860861</v>
+      </c>
+      <c r="E43">
+        <v>55018</v>
+      </c>
+      <c r="F43">
+        <v>1715426</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>2093937</v>
+      </c>
+      <c r="D44">
+        <v>1830586</v>
+      </c>
+      <c r="E44">
+        <v>216268</v>
+      </c>
+      <c r="F44">
+        <v>4140791</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>292235</v>
+      </c>
+      <c r="D45">
+        <v>244483</v>
+      </c>
+      <c r="E45">
+        <v>32972</v>
+      </c>
+      <c r="F45">
+        <v>569690</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>117023</v>
+      </c>
+      <c r="D46">
+        <v>139815</v>
+      </c>
+      <c r="E46">
+        <v>5888</v>
+      </c>
+      <c r="F46">
+        <v>262726</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>1222790</v>
+      </c>
+      <c r="D47">
+        <v>947103</v>
+      </c>
+      <c r="E47">
+        <v>127343</v>
+      </c>
+      <c r="F47">
+        <v>2297236</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>798005</v>
+      </c>
+      <c r="D48">
+        <v>1244095</v>
+      </c>
+      <c r="E48">
+        <v>11956</v>
+      </c>
+      <c r="F48">
+        <v>2054056</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>190893</v>
+      </c>
+      <c r="D49">
+        <v>263822</v>
+      </c>
+      <c r="E49">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>454813</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>1040071</v>
+      </c>
+      <c r="D50">
+        <v>1003156</v>
+      </c>
+      <c r="E50">
+        <v>20186</v>
+      </c>
+      <c r="F50">
+        <v>2063413</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>93336</v>
+      </c>
+      <c r="D51">
+        <v>92324</v>
+      </c>
+      <c r="E51">
+        <v>10555</v>
+      </c>
+      <c r="F51">
+        <v>196215</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
     </row>
